--- a/第一次迭代/数据库格式.xlsx
+++ b/第一次迭代/数据库格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\software-engineering\第一次迭代\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536A058-6D61-4FF8-A848-E3DA75FE9C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118A7759-AE47-4107-B0E5-6EB24930B70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2565" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{7CBCC5DA-B40E-4ABB-8B69-DF4A3880859F}"/>
+    <workbookView xWindow="1065" yWindow="6150" windowWidth="28800" windowHeight="11835" xr2:uid="{7CBCC5DA-B40E-4ABB-8B69-DF4A3880859F}"/>
   </bookViews>
   <sheets>
     <sheet name="基本账户表" sheetId="1" r:id="rId1"/>
@@ -724,14 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FB8347-4C90-4B7E-845C-25FFD3AA0A22}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634756F7-61B6-45D7-8F42-4D320A49EC8F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
